--- a/C:\estudos_java\teste.xlsx
+++ b/C:\estudos_java\teste.xlsx
@@ -6,13 +6,26 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Eveline" r:id="rId3" sheetId="1"/>
+    <sheet name="EVELINE" r:id="rId3" sheetId="1"/>
+    <sheet name="MACIEL" r:id="rId4" sheetId="2"/>
+    <sheet name="PAOLA" r:id="rId5" sheetId="3"/>
+    <sheet name="RODIRGO REIS" r:id="rId6" sheetId="4"/>
+    <sheet name="ELEANDRO" r:id="rId7" sheetId="5"/>
+    <sheet name="THOMAS" r:id="rId8" sheetId="6"/>
+    <sheet name="DIEGO" r:id="rId9" sheetId="7"/>
+    <sheet name="WILLIAN" r:id="rId10" sheetId="8"/>
+    <sheet name="CÉSAR" r:id="rId11" sheetId="9"/>
+    <sheet name="PATRICK" r:id="rId12" sheetId="10"/>
+    <sheet name="AUGUSTO" r:id="rId13" sheetId="11"/>
+    <sheet name="CARLOS EDUARDO" r:id="rId14" sheetId="12"/>
+    <sheet name="RAFAEL" r:id="rId15" sheetId="13"/>
+    <sheet name="DESCONHECIDO" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="43">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -32,10 +45,85 @@
     <t>LOJA</t>
   </si>
   <si>
+    <t>Bomba Submersa Economica Ocean Tech Ac-3000 110v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1920245965-bomba-submersa-economica-ocean-tech-ac-3000-110v-_JM?searchVariation=88270439798#searchVariation=88270439798&amp;position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=43287689-1d09-4ef1-8fa2-96e33455e903</t>
+  </si>
+  <si>
+    <t>KARDUMEAQUARIOEPESCAEIRELI</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/KARDUMEAQUARIOEPESCAEIRELI</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Oceantech Ac 6000 Litros/h Lagos 55w 220v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=43287689-1d09-4ef1-8fa2-96e33455e903</t>
+  </si>
+  <si>
+    <t>POWER ONE</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/POWER+ONE</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=d5363096-ac78-416a-b0f7-290804dae3dc</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ac6000 Ocean Tech 220v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184394419-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
+  </si>
+  <si>
+    <t>OLIST?brandId=866</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/OLIST?brandId=866</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ac6000 Ocean Tech 110v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193707097-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184401491-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193712556-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Eletrônica Lago 6.000 L/h Ac Ocean Tech</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2202437593-bomba-submersa-eletrnica-lago-6000-lh-ac-ocean-tech-_JM?searchVariation=174296016779#searchVariation=174296016779&amp;position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e69297c5-b014-47e6-9726-8b4b952ba3e7</t>
+  </si>
+  <si>
+    <t>SHOPREEF</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/SHOPREEF</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184379528-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184414210-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193734942-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193694627-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
+  </si>
+  <si>
     <t>Mídia Cerâmica Nano Rings P/ Filtragem Biológica P/ Aquários</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2095033379-midia-cermica-nano-rings-p-filtragem-biologica-p-aquarios-_JM#position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=af8b84f9-3ef4-4fb1-97a2-572476b494ca</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2095033379-midia-cermica-nano-rings-p-filtragem-biologica-p-aquarios-_JM#position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
   </si>
   <si>
     <t>MAGAZINE PREMIUMBR</t>
@@ -47,7 +135,7 @@
     <t>Aquário Mídia Biológica Nano Rings Bacterial 1kg Ocean Tech</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2198967467-aquario-midia-biologica-nano-rings-bacterial-1kg-ocean-tech-_JM#position=29&amp;search_layout=grid&amp;type=item&amp;tracking_id=af8b84f9-3ef4-4fb1-97a2-572476b494ca</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2198967467-aquario-midia-biologica-nano-rings-bacterial-1kg-ocean-tech-_JM#position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
   </si>
   <si>
     <t>MAR_E_RIO COMERCIAL</t>
@@ -56,31 +144,16 @@
     <t>https://perfil.mercadolivre.com.br/MAR_E_RIO+COMERCIAL</t>
   </si>
   <si>
-    <t>Mídias Ceramica Ocean Tech Nano Rings 1kg Bacterial.</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1927971554-midias-ceramica-ocean-tech-nano-rings-1kg-bacterial-_JM#position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=af8b84f9-3ef4-4fb1-97a2-572476b494ca</t>
-  </si>
-  <si>
-    <t>ALEXANDERTADEUBARROSBARROS</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/ALEXANDERTADEUBARROSBARROS</t>
-  </si>
-  <si>
-    <t>Mídia Cerâmica Bacterial Nano Rings 1kg Trata 3000 Litros</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2060920478-midia-cermica-bacterial-nano-rings-1kg-trata-3000-litros-_JM#position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=079a94e0-3cb7-4ccb-afdd-a3c1da917424</t>
-  </si>
-  <si>
-    <t>TRAZVARIEDADES</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/TRAZVARIEDADES</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1927971554-midias-ceramica-ocean-tech-nano-rings-1kg-bacterial-_JM#position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=9858e1ed-ee22-4113-a655-3ff58063bf7b</t>
+    <t>Midia Cerâmica Filtrante Da Ocean Tech Bacterial Nano Rings</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1964891089-midia-cermica-filtrante-da-ocean-tech-bacterial-nano-rings-_JM#position=30&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
+  </si>
+  <si>
+    <t>AQUAGUARU</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/AQUAGUARU</t>
   </si>
 </sst>
 </file>
@@ -125,7 +198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,13 +226,159 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>820.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>77.0</v>
+        <v>628.0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -168,75 +387,91 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/C:\estudos_java\teste.xlsx
+++ b/C:\estudos_java\teste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -45,10 +45,46 @@
     <t>LOJA</t>
   </si>
   <si>
+    <t>Bomba Submersa Eletrônica Ocean Tech 110vts 6000l/h-show</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1617810998-bomba-submersa-eletrnica-ocean-tech-110vts-6000lh-show-_JM?searchVariation=74048115686#searchVariation=74048115686&amp;position=11&amp;search_layout=stack&amp;type=item&amp;tracking_id=52553205-a262-49fa-9556-38550b03ca74</t>
+  </si>
+  <si>
+    <t>VETSAM 1</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/VETSAM+1</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ac-6000 Ocean Tech Para Aquario E Lago 110vts</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1605318649-bomba-submersa-ac-6000-ocean-tech-para-aquario-e-lago-110vts-_JM?searchVariation=79738139999#searchVariation=79738139999&amp;position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=52553205-a262-49fa-9556-38550b03ca74</t>
+  </si>
+  <si>
+    <t>VETSAM 4</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/VETSAM+4</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Eco Ocean Tech Ac-6000 55w 110v Controlador</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1563658784-bomba-submersa-eco-ocean-tech-ac-6000-55w-110v-controlador-_JM?searchVariation=73596490522#searchVariation=73596490522&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=52553205-a262-49fa-9556-38550b03ca74</t>
+  </si>
+  <si>
+    <t>VETSAM 3</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/VETSAM+3</t>
+  </si>
+  <si>
     <t>Bomba Submersa Economica Ocean Tech Ac-3000 110v</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1920245965-bomba-submersa-economica-ocean-tech-ac-3000-110v-_JM?searchVariation=88270439798#searchVariation=88270439798&amp;position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=43287689-1d09-4ef1-8fa2-96e33455e903</t>
+    <t>https://produto.mercadolivre.com.br/MLB-1920245965-bomba-submersa-economica-ocean-tech-ac-3000-110v-_JM?searchVariation=88270439798#searchVariation=88270439798&amp;position=3&amp;search_layout=stack&amp;type=item&amp;tracking_id=348048ff-9a55-4967-81c8-c214f5e806b4</t>
   </si>
   <si>
     <t>KARDUMEAQUARIOEPESCAEIRELI</t>
@@ -57,10 +93,25 @@
     <t>https://perfil.mercadolivre.com.br/KARDUMEAQUARIOEPESCAEIRELI</t>
   </si>
   <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1563658784-bomba-submersa-eco-ocean-tech-ac-6000-55w-110v-controlador-_JM?searchVariation=73596490522#searchVariation=73596490522&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=348048ff-9a55-4967-81c8-c214f5e806b4</t>
+  </si>
+  <si>
+    <t>Ocean Tech Bomba 6000l/h Ac-6000 127v Com Controle Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=348048ff-9a55-4967-81c8-c214f5e806b4</t>
+  </si>
+  <si>
+    <t>MAR_TER_87</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/MAR_TER_87</t>
+  </si>
+  <si>
     <t>Bomba Submersa Oceantech Ac 6000 Litros/h Lagos 55w 220v</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=43287689-1d09-4ef1-8fa2-96e33455e903</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=348048ff-9a55-4967-81c8-c214f5e806b4</t>
   </si>
   <si>
     <t>POWER ONE</t>
@@ -69,37 +120,40 @@
     <t>https://perfil.mercadolivre.com.br/POWER+ONE</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=d5363096-ac78-416a-b0f7-290804dae3dc</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2204390446-bomba-submersa-oceantech-ac-6000-litrosh-lagos-55w-220v-_JM#position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=ee67e4ae-6173-4664-8471-da927dc29cd8</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WRO3leC%2FDRC%2FPyRz9AwxigL6Qzr9azRkRlMjWvSgDJ%2F2JaSeyk27AaLSDuH644bDD9FWjwtCmBYmD%2BeDNhMpF%2BItjQKYkTanu6kv4nxlSWw7D3kxumBm5hTIh5r1LpIXZj56RW9ACQ45%2BKHJ6uvKoXZ%2BPitAKl1UE8Hxufh0e0MdADSMuWUk5v8%2Fe3iEVh9KfmujiCZExVswltuAboy2pCn9BrPGzy4Mqrs%2FomG9BYJmA9hiLou%2B%2Bow%2BBDIiD0g86xWjEsQ65azHqYNKb5ozRrPPuE6wybsaHwvfHjHQdP5RtG4GJ0YsJqP3fNwJrIBT%2FlOXEtRYWwun%2BwRvcFFlJvRFvE5rUZU5K0zAQdH90cNZcFuitJRKbSF7VC1wZaFm0e9G5hm31B1TLh97mU5lEI1De87RyOXjTnZU5UmZl3Xg5%2BC%2FTaHuCWkVKo%2F41sDQzmwzf69k9%2F3T08Stuczb9UCZp2coaebWNkzrKbekE4zF4eFy1178Iag1uyZjTIbMtT8%2FvblaMNZi6Bv7UUv83mOgVj%2FSdgqzNsSdI%2FCa7bV0GumFeXFid%2BBljnHgyes3SrWYnKh3FSdPk3shy1HtnS%2BRnaZaPhL1O7yKnAuwlCAv7GNaCZ3e30GPoN6rODMjTRJ9d%2BhPw9JKgyIdIbSuj3MuYFRbggtfqU4aTZYUQTyaDARx9LUYqnq%2BYZzJPC58wAvHuYrz9c6dPyBsahbySdyjEySlpKLmEe0Hvyh5RE9Dv0vHy9sCrWTEIyjHm0s0cejKY7Kbjgw7pssioxIqxMUyRpUe2ljjjc0HO4HFErW3GcdQsuhUBQWQgS6SZU%2BCyk8jfrV8yIWWNU%2B%2B7W6V6SWZF6ZepEpZ7LBeIMMFAaFG35VTlU%2B8WXcDtEOmPjQ9dglrRa4v7AYXO73MqVWewegGbfZfVUKPoo5EPe28WWcBTx%2BiufxB6RUFHKVYofX5ApzYeVZoF%2F6WfLxsKmUIe90yvQkwsYBQGHhgZk2ZEl4Oko0k%2FJUA179MqBIoNWibCdNptIBUy0IR0rFpjC2jOqD%2B9vLNlLJN%2BR0PVZvb%2B73oEOghID2G1gyBaxO2R5j8WvitlTVA85xPf1J6aUtwL3bXzVUzZGwzUDjW0myCTdEWNJH75ioK6r8Ye5rI6deaSsTstsiY%2FKU04fxeyHiwD254qaibFj2JIqc9xkbs6EWwW54VI%2B%2FmZZva3AvHly4n0b2UyE%2FyT7v7Vx9ZmV2YxxoCQFP9q%2FS24mcHh4reohIRTq8Ebegb0BoRMgamckgKidKeL%2FpHXIjRkP78LBEvBK97GxFkgDbThDTtmBJ25THUqn6mGprBrqdG3ARZfJUKFdqJKL%2BonTaqD4PCOx2f9zY%2Fywazr9wrnlIGwJBYc8o8GtTYtBCdxIfGhqT3zDB93G%2Bu0wAFJJVeC2F1PskG0ut9jobytIH00e%2BOmmjmc8BSO5fcJl9i7ozPeURP06n9Vg1frfVd5xm9eJAF3jHVCu%2FlVsazvxctH7ZotW23bMl15ilUX62tUNzz7gplB%2Fx9Ps%2FeMLVCMqZDYuMHkObHnOgikwUBEP8TO0x4HVn%2Bj18SFZkKzvH3Gm5BTXa1sFO6zQt9tqOQVI56oHklhFyutUfaJfMFecN6wzuVUywSVxbXdvEp7MX2DPuOIX%2BbmDtgvhg06LWvxPxbL4xOhsBOoqcU0SEPhUeIY3yTGOrGyVm4F0hsMcAjeX5xDZDsVO82WGog%2F0DV0JyAN2ofHxaVUKbwlVozbRG9rJSA2e4yRPYC5mRzERTsoaWNe7%2Fl%2FLavmiAseCa0CZoQyRjuGLBENNO%2BgLIcGDBnABbGzA6C4Fy8MpAZPyU%2BPcy457ouTSHorUYsgXN36eUxRcO5DTD3%2BGrlIvvbbvErCLV83Az4Edurskq4m6H%2Bp419Z1nd1Swke%2B9T6e8xE32bLr787HhyYJnU&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1875665643-ocean-tech-bomba-6000lh-ac-6000-127v-com-controle-vazo-_JM?searchVariation=83775671204#searchVariation=83775671204&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=314980b3-dc25-4ad7-84ce-5855d978c18e</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ac6000 Ocean Tech 110v</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193712556-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=314980b3-dc25-4ad7-84ce-5855d978c18e</t>
+  </si>
+  <si>
+    <t>OLIST?brandId=866</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/OLIST?brandId=866</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184401491-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=51&amp;search_layout=stack&amp;type=item&amp;tracking_id=314980b3-dc25-4ad7-84ce-5855d978c18e</t>
   </si>
   <si>
     <t>Bomba Submersa Ac6000 Ocean Tech 220v</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2184394419-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
-  </si>
-  <si>
-    <t>OLIST?brandId=866</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/OLIST?brandId=866</t>
-  </si>
-  <si>
-    <t>Bomba Submersa Ac6000 Ocean Tech 110v</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2193707097-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2184401491-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2193712556-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=9b7f83d6-d48f-47c0-9bdc-34ef7adda1a9</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2184394419-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=314980b3-dc25-4ad7-84ce-5855d978c18e</t>
   </si>
   <si>
     <t>Bomba Submersa Eletrônica Lago 6.000 L/h Ac Ocean Tech</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2202437593-bomba-submersa-eletrnica-lago-6000-lh-ac-ocean-tech-_JM?searchVariation=174296016779#searchVariation=174296016779&amp;position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=e69297c5-b014-47e6-9726-8b4b952ba3e7</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2202437593-bomba-submersa-eletrnica-lago-6000-lh-ac-ocean-tech-_JM?searchVariation=174296016779#searchVariation=174296016779&amp;position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=9755e9d4-c86a-4523-b56f-67d9f313c1bb</t>
   </si>
   <si>
     <t>SHOPREEF</t>
@@ -108,22 +162,115 @@
     <t>https://perfil.mercadolivre.com.br/SHOPREEF</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2184379528-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2184414210-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2193734942-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2193694627-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=97a8eec1-a540-4fbd-bf14-7881e634055e</t>
+    <t>Oceantech Bomba Eletrônica Submersa Ac 6000l/h Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2138069709-oceantech-bomba-eletrnica-submersa-ac-6000lh-vazo-_JM?searchVariation=174086842080#searchVariation=174086842080&amp;position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=9755e9d4-c86a-4523-b56f-67d9f313c1bb</t>
+  </si>
+  <si>
+    <t>ANIMALL4U</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/ANIMALL4U</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2193734942-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=97fd1345-bb7a-47f7-8260-7eca6bd563c7</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184414210-bomba-submersa-ac6000-ocean-tech-110v-_JM#position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=97fd1345-bb7a-47f7-8260-7eca6bd563c7</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2184379528-bomba-submersa-ac6000-ocean-tech-220v-_JM#position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=97fd1345-bb7a-47f7-8260-7eca6bd563c7</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ocean Tech 20000l/h 220v Aquários E Lagos</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=yDjoS3GZZ2AtYr%2Fs%2FLdaZSDaicskghQHC0PTar1TkO3fZpbx%2FD1ivUjVDBN4fsihxRDZxeFvilKnumSFYaMCWr5hkBp7h5IzHkIJnT1Ujyf758w8sdbiXw78XNX0e4r8MtKP6CeJ2UEotwYF4d6imXLydPnmtcJ1F8xJdx9D2BL3%2FK5TkUEGS837TAfkQ9COpN3Puy191ycUf0TSazFPe9JskK9FxXYVS5xSoGAxy70odor2KfGaLxzF0sR%2BRp3j%2BVl25kt82fu8PNWi1htabVqBTFZ0bz7jB253q%2BEAGe4kjrgnpSns4xnHzKTPV4OVDYYD1C%2BvOtuKIlzd5HOMn5RH4WK2ur5mZsnbKHP3WCvoboxpC4sJSzG4XaLLEPHhY63dgdEhHsAFQOvhKuK9Z4KFQDyAq%2FZt4D2kH0IfeF82IKlYowq5qSalDcTeJCEDDi4SQqLhP6xscHEASzcyPRmsspHP18xswqlJZLWwidZVKgzIAWwmp8AiWxubPQ%2BRkGuW%2BLiq9mdQvdkMYLgX56EIo9u7IFoKw9Bsit%2B85DJ0Rytp1T8PlMTuhotOZOvCuHkkU6qHAv05LaP57E%2FqNIgNj58uIErQ1q4Qt4NGtrw5lEK94TlxhU%2B7I5t6yBzwXj1iZT%2FFNqe%2F%2Bm4hzrckHzA63D0oxteTyFxTL4o6YbF1NX99SMQOJgrgXBll%2BhCPkKkxrx%2Byn2wvzdRmoZryv1zRTyZ1ONLhX4W6bvbJ3hUH3GKUzaqua4I4lFQcOiu39Ax%2BHWf0vpePQHnaElbxHDWRxsHR%2B1e6MevABDEx99Lq0IojztF14x%2FHRMtMOTH8RCiMMhDENb56oWFG6%2BwQrwrUfQuV3y%2FTZWRjty9qtcbZ%2Bl5oy%2B7CgnwHzv1ZHZQmoogdU0VoxZ%2Fc8q%2F7mDm8O9urYNcjOFj5gcwtV9dKLnunwFMIrDwyvq5Skd1B8PzECJhLYW%2Fpf39H%2Fu9mpbadGVxpfd0B6Rc9Tx6NCQSIxUNjhfOEA4mG3ecZoeBRn5gmcJfffbnX%2B4R9peQE3CyKBtUF%2BvVeTn1PpNqTm4nX%2BRbXkWTTu6iEU9EtL88cNjqDVdfMrlC8CU4WjWEtO7mdkyGgrT%2BSI0Ij9ASKaUw9G5VKCXjHwSzQ4v3ftpv4%2B8GpoUDhQ%2FpK%2FaLHM%2BFNGbLCJc34kxoxp%2Fk9lmxOmi%2Bn5kUxUG4GI1rkm7jR3lGDAj6Y2jaxYVszV7cI401KwKW4uH2jdIrDEM91ZfR5Gkvha3BMmtrB4QCn2zwoS71VYJ63p%2F8B1tiJeUeDmROe%2FwtRWXw2k3oBlg4kOWHcM1wy%2FImnK3GJhaxB7Wrv5sAB6B3nwRStCy%2FVoCGMhGXttXWSMihQA26I%2BYz37nXnhY9w2j%2BdnTnqwLawupw%2FWY0clbIqKOSgSEnEdBJ%2F9uxteejYdfk9sXgREGqvuOHiFdcxZjvi8IEbmjvSjpqGLygQHAA2OEjOFqleZyJcNdGPIoaWkKtR6cR0Met0pM%2FHEF7G8TidTZc3yhJ57h8fkkobbb3oZdRqPExUDkkFFQPYQH7HtxLhvKaItjkRtoVfhkedLJX7rLgTHxeqeqMoGk6z8EyyfS6aTwUDCV%2F73PogfYmRLclojcWC7D8su5g9F5jCtQlWIqgCIbi5ns7jGUsQCV2Zluvuzoxw1Ohie351zbvvxKI8oCOppTnOZJZS2z92MNVo3iE2t%2Bb%2Ft183DeU7fs1zcX9jiwpCOqrwEpKJ%2Fiy3M6xhnOLBl9IBWLH9D8eUK2QrSZv61Rqx%2FkuUsYHrTNhZVqgkC2gaDCn2qYaUQVBaMpfoPizAr%2F1Ayw7JWE5e0F7o5OULzDsDThX8gnxfT2vmaGOq7n2wqX%2FRdOCbruDo6XbBmlu8Y6viLS4toDKyClUJrp%2B0Xxst2f9vR6EyuWn4iInMpA%3D%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>Bomba De Lagos Submersa Eco Ocean Tech Ac20000 127v Peixes</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Fo6mWpOzGv7IImgjBkS8zfCGAxoc762WeWA5W47pZ3R4dz209%2FBR6Ui33EMfw3D%2FQya2n3U3rYT3Hy6rG5%2B0zAoQIVkO1Kd7kh%2FOFW%2BVw23S4xftOj3nDwsMXys6Bx6Or4FhO46ySZ288rTSwrj02SjMX%2FiyLrfZuW2mubtwlWpSFGwQzPL2jiVCGwoyaBy01F0I0Gpe%2Fz0l41wsbQXt42nBnU6Fcm7QWtg9oBgkXzIBvaOIGR%2B%2FcFfP6kx9TD1JoZRmjCHAh7fPcm1Y9Sb%2BQSc32nCLCNqDFifw%2FGL6GC2cgV0GvjhiYPOPyGD0MFPNPEkmQaGtZa9WWtGZcRHmIbfhJbxV4N9k%2FXcN8q8TA%2FtZnRzGLMq1vgDTzYkn5YTUWxy3nn74t8EbMSGh2w5UjrFSJ7m5KXPWTVYuruQEL%2F0xr17WMwcGT99Mg9C49nEja7mtXjxncn0QelHAFLpL4LhYpCP2OHFbFp39QM3LRk3xLjXnEwK00EChnCjlkV2yFbAm1Cew%2FWPcjfHYT3CYCy1QmwpUReIZoLjJTA15Q%2Bpz9%2B1vjhSWjbffhd%2BxEnAcJhyd8InMegfJQwNn38Sf6ZzKdTvZBN2lj%2B7KJ05TtXO%2BHe1XfVKXQFqc9c1ALHKFUTvN19B4X9faS9YYAplHFraZPnucfJH4dAvd8XduiUQgb4t6dpXlRMiuCwxh1PLz37EOw5xFpCAs1J3HIEEjOWL1%2F5kZ7B56%2FQXk91tA0mOjMUJR9ByjxxetGsIebkMF%2BMTurhi8PL9QHrWwAH4zzIGts2htztE6NjkkBy2d4TlDhKW1%2Br2%2B9aHMfcAK4bGNghmNXjEVZCkdR69xzn3pLo4ZcsNJlLvYQ6vXjR39ljzl7mREqYIcnrBpm%2BhwGKygV0K91BQUvTbAeO9Q41qJPQZT4xIvwx7Yeo8Fnuo5puMsT57JQyQJiyW7q5F9R2SqW%2FDX8sVJx%2BYZSXUI1h%2FJ8WmxbVBTl%2Bj%2FSNhDcq3m290s5vj7fz6A8zlVLIFUSKlBFbzz4s73Vi7bFvfqcv99J8BTZQc36vJOCYTjJva%2F7K3h0dK%2B43pepFl5S%2BJp%2B5zN%2BJr3Z%2BGJMbktCVUhCiWip9jOkG2hEa0BChHr6XN06YRvUh4oHo0TESl9SxbKFa88maK%2FZC9P2kC0KK3Wxu5H8p%2BBdvJCd5xhHIpWTZRRduYifokHvsO9YSIYR%2B%2FfVlGmdM0O1Q59PsqI8Mzmty8aFLftifrBdGwwBYfo4n83IY%2BBCuf%2BLDXvXknQMNZFCHdNA9zAs3GRz6szIIP033dNuKUxkTRIpIcjKtXoOQYJF2JEbHWr4t4UP7qQUQcXYEo5i2FoKhXaqmGrALNjh%2BQLp1NkK35OS9%2FhznrcN4AkeYQy7AM9K83wHKoJaOrpRPnoem72wj5twSPMRH63z4aSEwr2j0r5HctprdGvsRTC%2Fb7uRVRDWE5jWyQMuyoS5tIb3jFKs35hDtvyUAKE8aCdf89KldI87NRGYYzuyjIjs%2BunPvqINAZyKWuJ4Q81pEH%2FbEY4MLD3nnY4cqNBHlHsVLv%2BnZCpyx%2BtDm4vKZxuimPBGpux1MIgPEnoaL0mJtyXk8kq4tM%2B8d4MhjPqC6OS7gIL9DKo3tYlDmFxJdPgqLqkWpW5LNbBQGmkezRLpQyMsiE7W3B6Strr1ccamPl%2FPSQN6bQiFVkJImg8s3%2F8%2FRBsXXDfZWJLdRjHF3%2FrFNUXyPGXiP%2Bg73BJUYEf46Yfp8iYwpBNwSXZABqpTVv5tq45PT7Iz%2FN7P1LYWkN%2Fu2GVRzPHbymUQ5wrNrQBl%2B47iT4Si1yxudkBIh3foZEogiTb9%2F707PuzGKLsaiSv8fQiXpKJjQ2W04e8DqDDkSoE0PL3mcXe31gr6g0%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1605223718-bomba-submersa-ocean-tech-20000lh-220v-aquarios-e-lagos-_JM?searchVariation=77386203721#searchVariation=77386203721&amp;position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=bd0f223c-a420-4068-87ce-7633ba277dc6</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ocean Tech Ac-20000 127v C/controlador Vazão</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1605238626-bomba-submersa-ocean-tech-ac-20000-127v-ccontrolador-vazo-_JM?searchVariation=73601169683#searchVariation=73601169683&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=bd0f223c-a420-4068-87ce-7633ba277dc6</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Eletrônica Ac20000 220v Ocean Tech P/ Lagos</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1691376394-bomba-submersa-eletrnica-ac20000-220v-ocean-tech-p-lagos-_JM?searchVariation=73604055454#searchVariation=73604055454&amp;position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=bd0f223c-a420-4068-87ce-7633ba277dc6</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ocean Tech Ac-20000-220v P/ Lagos</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1892171166-bomba-submersa-ocean-tech-ac-20000-220v-p-lagos-_JM?searchVariation=85503520512#searchVariation=85503520512&amp;position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=bd0f223c-a420-4068-87ce-7633ba277dc6</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1892171166-bomba-submersa-ocean-tech-ac-20000-220v-p-lagos-_JM?searchVariation=85503520512#searchVariation=85503520512&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=00c6ed5e-cbb5-45c3-aca8-5e1bf105a4c2</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=nj1O00JZXuAWoar0j1S1dLunIWbyhK3YFtXTPydW%2Fad86D8auoQe%2FjdNc2rVS4NCfdOelZkML%2BTBqOFg6WBMdvEA1c6xPLGzF2Bls%2BSxRO4WWc%2Bu5zGh6ZjvckTu09xM7jspj2RF1ZpUQ568W1SuP1SxyNPWlrwxQ%2F19RfIshUICA%2BExIn2B3uSbC%2FTWl2BWj45zE0eHLAsAe%2BP1qUYAZYN3lWR146AwbM8WN100JGJ%2FL9JBOrKjFK6gnP4u%2Be6tn2Q90BhPw02TPfzVeAkVOWLguRpScCb8rc7XrgLxvf1RgZzSZyD49iytdz5AawWj%2FNkS8BTLBP%2BrByHCveQ1Gg3gCVIwaBBfjjaOiwRnZprQJ0egpEbcUJW%2FOamA8t4t5m5TGCxGp319srKXibSf4iNyVO0YxBk7RBeg04LQolLzbKBOg502P807qd%2FQYZM4IPrc7UBbncE6VVhQ5N5os4GzFgBXZ3SUAKTU2LgCXeask4Wvbuo8VRByzqVGTYpyyDcHY%2BVDndZzfmERdWtrGmadaDt9poVKpKZ%2FVObU2qt%2BMTvEzJaAuOJgSWuj34K3AMjSlmFtgULcxqnSRdXc4QATocFUwnqDjZERk2WQZ%2BHFe4KnuzxakbxnQ3NyCC8Vb89bInTkZDEPlp7Wxdb9FIbwbrZxdHbo3OsES1mtJhoLyPsoi4McxWubXN1dADAxRAU%2Fzof%2BPMa0Y1yP4mR4gK9C%2FECB9eLaqiazsD%2FxJhgLOoXYVMze%2Blt3p6HiWF01SGU8uqX4lhh0HFKhLYZ3oBLsQwwIvTqYI9jhjxkgE0muqe1O0qHxekX7%2Bfppp3NomIE3t8PNr63lWPzZhn6CmDBBN5LVYml3fB1FGErR1Hv2CfcnHEPuVKVs5iBu6fpElmIGzMZdQ%2F4toRIgi7Xnu9SRnlsYtqEInTEUSBr6OYSyIcdRCg6ftzHiI9suOwYYJpXpDt9ZYF5aJQjBKcKGpuV818VMrU8xR9nDdNMK%2FqusnhVlPwFPuTGq5%2F5XPN9z491skOPm6JxREJkPWkJqL%2BkSy1Cb5h0kdJFzq1WzJUrfjwTmlM0HnpFDTfLsCIotplpBO4C3JplqEZodK5Ug5yCIYNf6k7%2FuuyrG2SW3Kzr2kZdcLvjYXJmUCQfAXJtZfmZBuGdUz2CzN%2F1CG4cqU1lfYtIE2p6E7DJGaHNmdigvv1EF1EiFlE32MJ0mh5jUWoNzQKoirof3L3rTRUDAgIPc98HCuPRZb4EaW3VgSlQjHlISoHggnSofFbD1gJn3yZ469j7p2qYnlY6ADmQ3siMxXV45kB6CGm2qahpGnlMPqsDmaXkRdBUQlBd%2FlrzRtlBr%2FHSRdxzD8q5NTiVHkdo2kMXvS%2BOnFSwMvGDFT3iU7kQ5bqK%2BaBNpVuQeRQ6JVrk06LJi%2Bs8c2UOLMpYSxlObOLCVzXsHrNo0Dd9LE2bTkfO5r2nl25B6TlZW7uKeg4vMyQc5P1zp0qKG0A4WSh%2FdP%2Faj5vxjU%2BPew16JOfabem4Z%2FfllNwOXwBeAYAoy8SaEIRxpCy1cb%2BJ8cRNG737X7hmNwV0ACW6aiUqUEnzSQCoCSma8snF9SiR3vBCaOD1STb89fZYmvfxmu1Ic9g3OOVfm8GV5j%2BuPxmOXQa24l94Sb%2FIAgE7ab64xt8G1BUlmE0mCZVZvUvjcY9XGel7569KMA2voj5ozU6hBzOTiCFkMcoD%2B6FTliXx8f1Y4pihuW%2BNwjukGg7p59lcbEQYbjb5kdipARQ55CQxp8WOiQqHgYWa2JhHIot9x9gc6aSF8LPkRYJYJS5aCzYlU4VwM%2BdMIjb8vY25dDDt7ne363mEynLk%2BMj6spp3R3gDZ6EWvlU4ohNi6v2i56rvJR9dH5%2BApp%2B%2B0MEub0ZGvVGV2X4q64VTxrRl9J%2BQDgxQUV2vRvYZQakRrWSiJLfo%2B&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1566102526-bomba-de-lagos-submersa-eco-ocean-tech-ac20000-127v-peixes-_JM?searchVariation=79730200804#searchVariation=79730200804&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=8c491782-3b90-4376-9dea-49d0f2524f90</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=1R70CVh5ybnjm6ocy2rGQxL6%2Bz7iXTFgZU7IDIrn%2B%2BbDvboWsbY8%2FEZHE8dmHhwRz84o6poxgLldz%2FdIy1Kv28f7r4%2FJ4nhd2mBuIreWX4pzbviIo%2FPk0bfNwdbnpuIFCTeH5dWJTwSPJhdWS6nN%2BBHBdLarHf7JUGaDpVtN49XvXa9w6yqtHXjkeUMVnlp2ZhGY3yE7uFHiF7gho38mFwug1uv8xezKmKlQDOrpJotKAlC%2Fz8xHkCZpZxMO3%2BnSNAsQcIWIDQTCjyP1AIp9ZFDd6X6OysB78bTS59jZvjbcWU8mk9bekMbFUFI2VLHoWTkYJDfcsfTrsG8IoRDz1mYUm7Orgqxr4NK0m%2BC08p10G8HRf%2BR0iazXyp%2FKWP8g%2FLylJSAyO31f0Z3LiNzyTOTJAFryyrPy84coRYN4kyi8JZx7XEJUi1qKTsv6HcmZkyJ0BUe%2B%2FLfPIISEmMgOFkJFB0ejL6ZEZYjXlR7hPnJKFAPGSt0APuxZPLHuF1zOHv7hE0B%2BdJ%2FMNNdRehhBG2h75CZaMfmUjJfUhDEXi%2BR9%2Bzoqr7FKXrQA25YwmiXg4mxF9OV8suSZz2WzLDx0%2FJEsAhwSguJZrEKVFNOfFz8Lft6gJaaZ9Uw1fLoX3ikzgbh2it5%2FaY7tNL2uavbjsxALec5G5Chu2%2Bpl15pB3bo%2FmUnRZv1PiDYp%2FO%2BoCxsESfvGh988JTthdGxzXApnL%2B8KHMK5xWT9vRYiHV5JM2oLWxLW4c3Py7F0WVd1Y15AR5xZ7Tn4rkOtztPwjDDFxcfCWH6BGGIFa0mktL1IN5dhhL7x5rln3zSxH3t8AG9jIh317xU9gBi8PyL1ssZeLBKmEgVmB0BK2KChu66KhL4Iod38xLxN2xZyfYWoi40%2BaNnxuUYp0eG2FIQ3HPKG4hT5uAWWRuIK9hXUwiO8U1sZOxvAf6xyVCd4CcSfx7PYintkMDaGgRzMy%2FqpXLAdJI2ql2Xw5sVrsI2gqYeHiie8MO2V%2BzEmBeRlaAVksK5I%2FVWPdg504%2BfB4GsuKgWlMkl1E2l5tuonPNxOkDUeUiAd2PBYZZLZAXPTAVn4qMBkkPVzipxLqWAz%2Fr%2Bxtv5WZhreqmsxBG9exogq%2Bw6O0pYYW%2BNjV6R9yBbfZ078vdiFHijpfk4CePbdB1ODxcBlqTcTXbslagVWKo6%2Fo9KZkh65JXXirjklXmwEkp%2B2vleLYfNi0cVHR6trc76aBUduLPDozOXWUKxtNkqfFSS8Pw%2Bs1r5TtSXq8pCBMdNeJ2PiuJuSTDKusxT4viYX%2BTrINhwKh%2F3U1b2IoGs7T2TAhZsPUNoNDNGVv%2FQnBP12ZLmhWjgp9C73ov7f3PN4G12OVme2ztJXGIQjmSB0Xzfe6toWmWBovGrlLAvIjq5EG7AvNX7XWU1hi3xZvFI4jAfJ4Sc1RipB5mOX0NGvZ54SEMJ1wlFNL%2BiNQ6qjY803ts93P1wyigreN599oE0ERzD2cJDEtVwv2ZZ1wvBm62EKqh3VtknKdEizsT0yXhuPmmp1ZAzdo0tigMXVu9l7DUsl1AYth6Ux6WzUPga9x2o5VfxR0UtyOIgIsqdLpDi1ejJcnsvy7xX6EbEnLbNg0FZQ%2BOOaqH0DT3y1V61VmKvouBCn8ZmldqXIJHzOUXVq%2BQEPmAjbswn9EPnt35gNGa1P9q9JiEyz%2Bb5OzQBOhSM4N%2F5hYCYo0LIp%2B2TyqcEzXgwCh7YdzhVp3OLLUOjW%2FjsmiGT3RRt1096EaZOcZozTQm5iPp4uDST1Pw%2BQrsVSArF4NjExA4PnJSYhfJfC49dotGuJMkd5zEiknRpc%2B39Rauaq2Z0%2B7sP8R7jIPCXdGDlxKbw9ObEXuM7qalrc0z5coGMKIafL3guKr9Zx5xg71f%2BE94nWMWJtpFO%2Bq24RiH45MKebhE9VfLajuzPYjuA9Azh1mTcgHMfbUfj0EqsB2UUwZ409Jd%2FoJuL2t6JVfi2%2BJUnSmg%3D%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=jOHz9uGzpVs1kO8i2adp1jm7YiJ0FSVzRibM%2FY%2FEe%2BJQajknKLXRC6p2%2FJbNj7RVLSRqIgtGXK7i6lQTP8FCa6w2glEJaK4LQC7TSa%2F7zOHWVyyXZiBqgT04topCJXPO%2BOYNY8BUcR%2Flvfyz1khuwZ3fUWmOnKNSnjJclls4swnK8FinvejaR1ShBIQF8kvR5i9v4SjLzWo07jZNpKSzzKtTTz6Qp0lIX0khTdxUNil3F0t46sSyi6s57ZNkLIMg5yEgsqWxXNr45pHbrCfaMfFt2Wcu7vHebuGetgn9rckqX5rYmegA3OUzBwv4iR6bQFbf2aCgElwOGFHN4kKttGVd4o1ABNH7apO%2F1UpS53WlbZ6fj6w5Ae8lpdtFldZ6Lr0GvgilFlwPjfaOQQZzme4QmnLMcuH%2FuYN3rfQOLwCci5bHrkelp%2BB%2ByJ9XLL76mVHYwM8gZrFwJHMOhdFgXiAWqaEbNfkqBYRC%2FIcDktq9ZEaql2FWa8sexHqMwSXTA65KZUtIMdfiz9yV2VfyvnVdKQxn5Riqm0gAtQ5QpIK3dHvGAgubsNjpkqNz5JpzVjRcmRBB9wNbhSkul6H1CBxKnVUjyQ6qqKOeWjInChCA4DMcmkUMa1Bodiau0CkM1e0Wm5ItA3ba1odOT%2F%2B8ek34vmHgttq0mlw%2BLC4zO3OOGhT2hTCXry0MEpLW25uR%2F0rQSCL2aJndnGTWjGdXOWaf376QdQVn%2B6dr3BeTorPnBW9%2BG5aMIOcwzpZvjb3SNYQH%2B3aAz1gDEwUGmeKRFhESxktJadSveryu8%2FZeZVFj%2BMVQRh3wrRVB7va5fwsYKqKJUeosEDm6E3yCouf8vpqNAruxoeSVJlVyrrpId4idqanm1u2s7BKEYvSiaSK83PUg0TBqStU4mGH%2BI%2FGxZ%2F29M1cN10aagGALMqbnsFgWQ2elfsP5IkR%2BvhYHSTmaFY%2Fh5K5fzPBvhEphTaXAtNeWJclCvTliE2FfFP0geHahlXeC3kxi3YzLWlyrYIyqmkQ27SjY8v%2B0KTv%2FBwvf1v8RvRVE1sExcKZ8DtHLw7ZsxbX3TBO8h%2Bd%2BiYMT6d7J7MrNeLHXMEZhLU%2BmRPMzkIJ%2Ba1sNBd7Y2e%2FxgsmxPmfPEox41OcqZMoXJSVizZtqUq8psmriHQfzB0o3qyEukTRQ%2BXX1WprXnGT5AZpDbSzGCIO4BTmABd7TS%2FSLmG2x2udeHKp4F8rhXevuflT0GD1O%2BhwLt%2FKTtQeq3Lw8Z8vxA56%2Fwiq%2FFkHBwOd%2FJ9Q%2BgoMRBhLValBXOvnURXpx2j4Q1kAgTvmRx7lJ0cIYSUVZJUIkx8pDtyPcDsk41vgnvAZ4xwfzAbzabZttaskFTitEyUjVLoU9zdaYwoGgx2v9k9WZfYIGUSvwKeGxUReq9iXGW4aEbwrx21T1PhatOdHqmQGHuT9T2fHIzjkBaYQsPY5oAb6%2FBTKoz1lGmHWdISYrBeHy%2BkGqgs0weVlsaFzCyPOiUMQN1RjZLvJCG0HeCyENRmko01h1yFdh4C9JemlZQHbarE0XT1SK1AYmOqu%2BrVpBWGzJlcS8e%2B%2B69Sglk%2By3k5GDfIclBL%2BN%2Ff3KpgXnXDZ2peTEfGcr9jEa6QIFVnCym9boGQgJoGLJqkmOO8zo%2F6qMmH%2BQkoyNtXzn4vBaJAjgBI%2BW0wcoxuTPom94%2BwiN6Z5QZsx%2F0RciTQu8FElNhlaa9fQ7zHkItGNX82ovbJm8qXp3yju5T%2BmOaQiV5V44NGIT10e2dRvADNjLfduYgCqQ1cg3eo8YZvESfcsbfyUjvjrB8SHv9ksYZTXjQbBGt1tHUCSKJRUoNf5krLabtEXBUDYJo8MtQaz4nFnFdsRaqJJn4DClmCeAHoEqd%2FzCAc3GI92BLwjnArrT1qyZfrtmMa8ywE2u42m1iyBuGD1JKw%3D%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>Bomba Submersa Ocean Tech 20000 L/h 200wts 110vts Lagos</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=vnxXO9OhVrp1F040HBlvdIvf%2BTbuoeUuZnyB%2BdsVjgWMwoztnRCteAakTW2%2F0QrKHSdVIhhJmmBW8x1ZZIIeMRR9422nfTR9nD0OE59kW0WSyByWz%2FA4J0JTHeci0lfZh9Fi69SH727tebeYN3fn65BXVHQBDSLAy%2FUUk3Ef5DInmoqqY34rTINI2pz%2FaeXzCgjn%2FLmS7AX%2FpOZQtaPj2lRHE73ocLOIfng76eU3OnJUVbBq8GH1Si2SuW%2BuHtLi1zsbPbanifvmZ0KaHdo6SoEFPesEG1pyq%2F%2Blb%2BlFT84qm5ESf54AJRFgrchLWAuaHAS18meNrkwKXeHYyJVpfAa3i2O53yQyzN3DikkqgHGyffxjdU%2F5e1tooQFQ%2FDQYCNZ1g5sCxODENjPjpfDIpaTon5mU%2BQkRLLAEDhTkiGfQPNOFX3T%2B7oJpPb%2BN8QQ6Tz%2FK1xAhsfmehSlwVG9LP89MALmvLt88yCcTWX54GfoOOcn%2FzFhotEzZ9REpOMU6MQBeyeT8k5oxUQ%2Bil3RTM0yfpG5Bo%2BtfICrx%2Byd7NtSWWJiEEpfcwz6dTAVZEaYlvUQj4ZEVYjN5mStgSm9uU1uLTkc39mqrO4oZa8JrlsIqgUCs%2BxRsl%2FdZReeT1GH4Y5ieOlZ9gL%2BXPOAXjIelN7JHHD1Ql7gi0JZnju7lGFD96Ku8Oe%2F9rxERdVoKdiBm%2BgUQGjMN2lmXQYASLoTB3ik3ZrVzxh9HNCommQ%2FWFqWEtaSrhww%2BWcYK5vOFtnLTUevM8CZ0Q4OwgZAgir0Hs5FSxbxqlLgH8sDlU27m7zulZfwTEV76AAztN4OEkwDFI7BWO%2B6oU9rcVPWNGaCy4iYa%2BtjL5U%2FXHO5sJpxMVtjIolV09Vd%2BFurmofCx2QeyENrouuNp1F1GrL9zkAn0WOZpYb2gMeumOqvoIKCYfkNJf3XT4vUtgroykG2eAiVnsqB36RQQ8%2BxFIs%2FR8AUL7VGFv6OK1Wl%2BesYx5Iwl%2FbnMJ9wolW%2BJwKaqyleO7rU5y8FIsTjo7J%2BbE0o8mTPWB%2FjWc5cpoYHo9hN0yojcvAapnwNhfF%2B8P2Gxnp3EcR1AAMY%2FQC%2F3yBauiRN7RUBk9dlchx3dVdSpIzGg1xVRw%2Bj95tjOiGzNsz0lELwhtAcsBs%2BXpjpSZOlzbEgfoFgOuVFKAVB9W4qYoUoN1zBPn%2BjAs%2Fu7JWbjPHNvIULgBM1BURdAaRJHISzUmsiP0arf%2BPrckjr%2Fj4AuPSAglezNG4UCK3d5JuK6O34ib4Rzm6tCsS8ok1IJdG6tAOItVysmvxaC42moSXYWMsl1Bn1tUfJJw4PB0Qn3RPf%2B35eDJTxA8lLSV3h0wTSLvuoBh%2FBg6z5U5TS1xYRe%2Bu9SVI8MyKTGIDm7exOoPNfLNNlned6XR%2Bj29adoENbUufeQ4y1KxvbvehwXmXIiuo%2BEeCjt7bsYzEW7csK2Lc2TKR0e2fXAsH5FgCWFzwXvqCR5hwvq1PsHPaf4gdUI%2BWCtUxgCN45lJzRNip5afSXjfmo5nxeOz%2BryIs2O9OIOKcTRcgJs1teoqOsziSQSUYN43AagpAB9ZkgmmF0Z%2FMSMkvWAun2%2FXfXeYQLeAE6%2B7x9%2B0NYvkCNojPsU7q3tckz7jzJyycdAGe%2BUm1F7Z%2F1Ks6Lo9qP7qBvDnQWIaPWzqH7qr9jT7vuUtYMxtqQExr4zKLVG0V3C7lDRybiAPFtkvsBe9059ZN6Qp2hDK0tsLEZ%2FaMI3C2IxUc6XJ%2FmFRYWHrTocyeXPMav4Rtikob909AU8M0Cjk0J7KL1qfR9mX47aA44UDAzoaQfCoWLysY0WCxV3TfOYW56Od22iA1AVFhCh1JH5765X%2FcDgjaA4w2ACdk6mwoSCS3uQCVjKso2JDlBhaxKMAqXsPLiNgdpcvQLOJKN6fJZkx%2BoV65X61uX4cSE%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=AACqWDKVZsAhY%2BleBydjL4%2FNi0t3fteqxUSevLWsDI92ilkCLhbY9JmxnW0lhIkfMCiKhkoebYDupmaNleYiL5N%2B7fnziMTnXdXAziSjeseLM%2BFsd%2FLhjVoZsNrE7iqIioLEZLJXeDwOKUnc5hns3uB9OsZ1B1EGpD%2Fl02Ss4LUfkW8U6tEcXaYl%2FO3BDrTvb6baSvdOE9%2F%2FLZGprEKf9W63dOmwgQ2B07xmD3OZ9afVD%2B0dLyJUb8ZEPuuvSWV7O%2BAAQdzlC07OvT9T0WVcNAmuP1lWl1kY54OfHaz8xeHWSu5s3QiehBFOsXrmpGs%2BAnNsMC7g%2FHskuNJr%2BkaKOpVkr6UgbN7d%2BJA%2F5Wb31soP6M7tD%2Fto7F49mB8RcazXD3kSGP62Qbcw5WdC3YBTNKuQZRdqPSEhw01fgu0ZsGxpK06xIQ2wMhUKxA255iiqU6jgvNzmsW9smz4uxWuV%2FjBKekshRwkY9Qxh6fqqR4xePp9BsgQECx6zVFPy9iiXnyxJZ33hrNpTsqadHUuLcCoam5zYbl5tItjn2uZFsrtpAuXQsB6p3Fdg5U8G9zgqNvPa3qQr1hvealUn%2F08OK1g1Ib%2B2eXU2RDXXTy1gNzes6AkV7N4LFpvntmU5Xtxp9nm5wwO39ldYTvCPbn8Vs%2BdR47OYYzJOJqByACsv3V5fwwMSZjvG7rEih6d30Mf6tB31CzKDGOfUlo7vsCZ9C%2FxwofYQtcxZmMnNLt%2BxXqn7hcePdNIBpk%2FMzVCg5B%2FEsdbD8ZK49F3kmhba%2FHMbyaGefEksM9fNNTX7qxI1xHmfDqO%2BfamnAp2eIskvc4yi0T3LhI4oq77CxFr6kgXRIpHrrSHHk99mLDiPt%2BqQA5hkFplRLwwrAxnwRlPQRRiIXQtqwLym4OGZQ5%2B5rM0NpXwrPCWddSTWO1BB8KEMdjL4XnfN2QOt%2BRg%2B2yXXSkRbkJ85DajhQPg%2F4teulxvU8d9Li9VD4UepnQPoHL5XRkEbgGeBcy7nJYSdJxfLKR9%2B9vRsTZ0B9uNNRLo0LaXqduTUCwl6YiZnH6aZ2m9HwgODUF%2B3fw77OdzOAfYEmnJRCrBaVvabbMdVx06gD5IwJt4zaoczoVzJ%2BlDbGuWyRvIZJsfFcDfs64684SBtDH3ZWEBBTr1WISb51TomgZmv4Q1kWXz19cpW92cW5eVLvDe6mDgR7Qr43vZiASL%2B3r%2BBSjpU5BKx%2BY5XL1EFjTfgdM%2B%2FONyWMgMkJoUdcf%2Fa6J5XiP3cUS4ukrBCp%2B%2BwReW76jqF24spelYOvlSpn%2FakUGYCvTFf4%2BH5RemDGgSK%2FT4Z%2B9pAwukGq%2Fwm8AxG1By6C75Z64U5A9GxyvU1YmKzsDjpyO1fHI4WjdeeHTVw2cNNX4INSsQsbjfBc50jyJgVk7%2BUfR0H7snqB1I9Hqbh0xtwE9kkvch9QrHAyrk5403y5d0fAy5%2FIXTvjm32VIJQB%2B6esLKCJ%2BEUYMzhkPpcGoxHvxxjqsbm7dz6pJZlB3KPeVYcRAdT2v9ONfx7VNmpuYsGS%2BXKmHUNBODf7%2F8G5ZFIOpTNB5WbCv9T%2BIyajDhYuPMgvrJJFlK1y5bzXXzFwHNdKw53nfsKFFNHESo7nsu4%2B0W%2ByitGzHYeM%2BdIHU0BpHFPw4Voa2bLrecSMtiaR5JNBqUwB3fpw6MxIMvZaJOI7to66%2BFp3Qz%2BYOAUqoVExXS5Kz%2FoGO3emcQUCmj0db8KW%2Bn8Ipo5ASrQUMmteWIkXbAICzNi4nAMLtWv1F1vcHgr5qEwahZHsC780OaQDfsd6%2FWR7RtafGiWLQ5a1GfkSlbpC666O%2BsX8ssM4alYjloQqYJMXXndx6OdXaf933FyHKcKxdBW7pJePA0nEfli0ABD7DnKT00rsqhRLPcTfLPIrTZY2%2BIMMKGvdZM13F3UTjD63tB0VA3ZNC0%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=%2B3Wo77Tr2xkPxfHs%2B7lTL27Q4IJJJ3NArCKQFBmmXa1uZ5WilB1u1zCB%2B3osAwZktaTDKZmv6AtvrpQLAeMs586UwPsSXwSwMLbUPb66zV8vfXr8Q89vvjkvy9VZl63gCfwoMYNIOXghismuWBGKOGhCqG5wYpuCIU%2B7QlDhVtj2ZlBLoCG9HE%2B%2FSbzLA0KEyb%2Bq3Z5cpV9UMyeZaCk1RvNnripAwsH1Q2n5l3KvJjqujET81ReQnp78qFyEY97zp2Y5w01PPV0AYuvrsrEm5Dadbyw81mQOS9DZyTBKRosN5T3bUrHRshZ3Ogt%2F4Hf019vlnCpOA8my4TxDfCPl%2BR5mLlup34NNdQelZMDO6iGFnbYQzdNzqu72OlJag4nfxA4s9PeZZbH5k7sUK9mx1oKUBBl8FrzzZyVyefEkesBabdRG4mlk49kQj9iFboPkiP2RlMrep4tbjjjhb%2FHeH%2FyMeaMdWT4a2UVENhVbyXhAy6SS9ZL253ODVzs201G%2B%2BDrmJFtz4ymaVTmsKgMxQ14Zw2UQEQAff%2B1LeJaaw5WR1i1Ls75r4w06BdF8ytouaZCo5XOu3ImkFesIJy5K7RNLTlCPsZeAhEIHPavNdhdzNe29gO9qgg3u2HxGD3GlzPnZVdSAt6gMS6RznCp6rzYWAGrwyneyFnBTcv0nbkAioRCzP0cgXvD8sEMThgZNB8P7I1L6qcaVP0X8C5V%2FK0pkLTcZ6rPYZC8rdkkjoZx%2Bj330QjC7lRmZLcsmVPer84vw%2FzXZ5TIOUu%2BPpFojLcETEHuSkFgNXsVwu98AsPqD2H50SXdYnGmzbkrZwrvzMDhz6ceiWkWTB1EAw%2BptOVgDxUlD9IJzlYK4CadhfJF4ikCcjNu5x3OaCyYfuCY%2BEAYDknEKjg5HY%2Bg1K%2BVZEYQsxN%2F5qZzVq1yS8k37w3MuoZFDvwZpgK4tnctHbrdpIgRAPzH30LyDekijlEzKlbbnV72XLSLLGBFbH8HVminVbdQoeIajnMljECJQpf1xAyl1s%2FPYJJXfSntQZhBx423std4msnhiyM6A7GffjBFgAwgZefPupG1eNrQ2Phw2yjMH8ks9%2BS1Ow7qDgjOvs0cLOPpn2EJbUcw%2FpN2FLJtw%2BAu1qYqX0UGnQG3%2F0tzOD1EiZOMydymmaBCKa5%2F5HzlViL4wYDVWKwObIdM0tee%2FULLniTsBUk3mdOt%2FQIWyBSySsbqzeQqAi3fAj1Q0TvCo4xa3uxDQYjRiAaHojR674wcti7xO5KJe62iAMv%2FYjndpdM6OuPIgxpI38p29%2Fg3SuGwKAg1bXss08z2XhmgDx6uS2IUb9qvr%2B352T0LpVMkT%2B8mLBl6qsDwMzS3aFIPrkj0kh7n0t6sd%2Fqd9Sxp6RnOvQUsg6kwMTzOxDWscSiIcCf7rP17BgXX7CGWKEsRo9Ac2TKN4bdDqKicHOg2P8B8dU9qiub1orOStoGq%2FjDQKGnN7UGAPnp5GaXov4CSirdXWs%2FskS%2F29ch1jR4IxFFrKWFiXOOQ1K%2FxeMcLdAtRjLzxjsJ96HRyPcGDPkGg300WYB4q6wx5wwdO6X1f09bkwWiIV5sDQGvsRy2Z1iPRwLmmm3D4ndCRhbrsZlj0IVi2oqwxJfSapHW7ZMu3LLjMiCy3kPQA6cQyVZn09VLs8Jgnw0726ZD%2FB%2Bg9vPuzivGqDnhFRguqyoy66POkwQ9Zn%2BAPx2GRgPAhcE3dDCv%2F%2Bceu%2BeqSpvQSRX3fdZNCfiK4Gb%2Bxgy9oI5WWkgvoKjXbmsQVRKx8N%2Fk8TyZ7zwzkhncQpfnrC3POSNnHvPLsvedUmWuBaQOjQKN73patHCMSHHvW3WDALumN%2F1zMb%2B4%2B%2BVD4zBQk95ASx88N%2FGYp6is9K7DXamGEK93i6dny3gQgochDSzUIcllnknWBUhqLeLQUd0iJLHIPP%2F9W5QlgPjEg%3D&amp;rb=x</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1566096178-bomba-submersa-ocean-tech-20000-lh-200wts-110vts-lagos-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=e4e8791d-dcaf-4a61-9606-8b8020334a59</t>
+  </si>
+  <si>
+    <t>Midia Biologica Oceantech Nano Rings Bacterial</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2132874562-midia-biologica-oceantech-nano-rings-bacterial-_JM#position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=14098755-00fa-4f3f-8c56-d62c0783c443</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2200636442-midia-biologica-oceantech-nano-rings-bacterial-_JM#position=8&amp;search_layout=grid&amp;type=item&amp;tracking_id=14098755-00fa-4f3f-8c56-d62c0783c443</t>
+  </si>
+  <si>
+    <t>Aquário Mídia Biológica Nano Rings Bacterial 1kg Ocean Tech</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2198967467-aquario-midia-biologica-nano-rings-bacterial-1kg-ocean-tech-_JM#position=9&amp;search_layout=grid&amp;type=item&amp;tracking_id=14098755-00fa-4f3f-8c56-d62c0783c443</t>
+  </si>
+  <si>
+    <t>MAR_E_RIO COMERCIAL</t>
+  </si>
+  <si>
+    <t>https://perfil.mercadolivre.com.br/MAR_E_RIO+COMERCIAL</t>
   </si>
   <si>
     <t>Mídia Cerâmica Nano Rings P/ Filtragem Biológica P/ Aquários</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2095033379-midia-cermica-nano-rings-p-filtragem-biologica-p-aquarios-_JM#position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2095033379-midia-cermica-nano-rings-p-filtragem-biologica-p-aquarios-_JM#position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=14098755-00fa-4f3f-8c56-d62c0783c443</t>
   </si>
   <si>
     <t>MAGAZINE PREMIUMBR</t>
@@ -132,28 +279,19 @@
     <t>https://perfil.mercadolivre.com.br/MAGAZINE+PREMIUMBR</t>
   </si>
   <si>
-    <t>Aquário Mídia Biológica Nano Rings Bacterial 1kg Ocean Tech</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-2198967467-aquario-midia-biologica-nano-rings-bacterial-1kg-ocean-tech-_JM#position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
-  </si>
-  <si>
-    <t>MAR_E_RIO COMERCIAL</t>
-  </si>
-  <si>
-    <t>https://perfil.mercadolivre.com.br/MAR_E_RIO+COMERCIAL</t>
-  </si>
-  <si>
     <t>Midia Cerâmica Filtrante Da Ocean Tech Bacterial Nano Rings</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1964891089-midia-cermica-filtrante-da-ocean-tech-bacterial-nano-rings-_JM#position=30&amp;search_layout=grid&amp;type=item&amp;tracking_id=1259eaaa-e63d-43c6-bf99-3438655a4ef9</t>
+    <t>https://produto.mercadolivre.com.br/MLB-1964891089-midia-cermica-filtrante-da-ocean-tech-bacterial-nano-rings-_JM#position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=14098755-00fa-4f3f-8c56-d62c0783c443</t>
   </si>
   <si>
     <t>AQUAGUARU</t>
   </si>
   <si>
     <t>https://perfil.mercadolivre.com.br/AQUAGUARU</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2200636442-midia-biologica-oceantech-nano-rings-bacterial-_JM#position=8&amp;search_layout=grid&amp;type=item&amp;tracking_id=4d37dc24-f346-45fb-ba31-f772ea46ac95</t>
   </si>
 </sst>
 </file>
@@ -190,19 +328,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="0.01171875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -226,19 +421,104 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0</v>
+        <v>831.0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -296,11 +576,14 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="0.01171875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -324,17 +607,665 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2"/>
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>795.0</v>
+      </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B12" t="s">
         <v>42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -349,6 +1280,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="0.01171875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -372,19 +1306,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>628.0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
